--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T16:58:46+00:00</t>
+    <t>2024-03-21T08:58:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1772,17 +1772,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.59765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.14453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1791,26 +1791,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.99609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.2265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.75" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="89.546875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="88.7421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="187.49609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T08:58:26+00:00</t>
+    <t>2024-03-21T14:16:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -708,10 +708,7 @@
     <t>Broad categorization of the service that is to be provided (e.g. cardiology).</t>
   </si>
   <si>
-    <t>Broad categorization of the service that is to be provided.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>https://fhir.nhs.uk/ValueSet/NHSDigital-CareSettingType</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -4782,13 +4779,13 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>78</v>
@@ -4830,13 +4827,11 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Y27" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y27" s="2"/>
+      <c r="Z27" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4878,15 +4873,15 @@
         <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4912,10 +4907,10 @@
         <v>209</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4945,11 +4940,11 @@
         <v>213</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4966,7 +4961,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4984,35 +4979,35 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>78</v>
@@ -5021,16 +5016,16 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5080,7 +5075,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5095,24 +5090,24 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5135,13 +5130,13 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5192,7 +5187,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5207,28 +5202,28 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5247,13 +5242,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5304,7 +5299,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5319,10 +5314,10 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5333,10 +5328,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5362,10 +5357,10 @@
         <v>163</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5416,7 +5411,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5431,24 +5426,24 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>261</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5557,10 +5552,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5671,10 +5666,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5787,10 +5782,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5816,13 +5811,13 @@
         <v>209</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5851,10 +5846,10 @@
         <v>190</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5872,7 +5867,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5887,24 +5882,24 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5930,10 +5925,10 @@
         <v>183</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5984,7 +5979,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6002,21 +5997,21 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>277</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6039,13 +6034,13 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6096,7 +6091,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6111,24 +6106,24 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6151,13 +6146,13 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6208,7 +6203,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6223,24 +6218,24 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>291</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6266,13 +6261,13 @@
         <v>183</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6322,7 +6317,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6337,24 +6332,24 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6377,16 +6372,16 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6436,7 +6431,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6451,28 +6446,28 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6494,13 +6489,13 @@
         <v>209</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6529,11 +6524,11 @@
         <v>110</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6550,7 +6545,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6565,28 +6560,28 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6605,16 +6600,16 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="M43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6664,7 +6659,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6679,24 +6674,24 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6722,10 +6717,10 @@
         <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6776,7 +6771,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6794,7 +6789,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6805,10 +6800,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6917,10 +6912,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7031,10 +7026,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7147,14 +7142,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7173,16 +7168,16 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7232,7 +7227,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -7247,24 +7242,24 @@
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>335</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7290,10 +7285,10 @@
         <v>209</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7323,11 +7318,11 @@
         <v>110</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7344,7 +7339,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7373,10 +7368,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7399,13 +7394,13 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7456,7 +7451,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7474,7 +7469,7 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7485,10 +7480,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7511,16 +7506,16 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7570,7 +7565,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7588,7 +7583,7 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7599,10 +7594,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7628,13 +7623,13 @@
         <v>163</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7684,7 +7679,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7702,7 +7697,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7713,10 +7708,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7825,10 +7820,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7939,10 +7934,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8055,10 +8050,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8084,10 +8079,10 @@
         <v>144</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8138,7 +8133,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8162,15 +8157,15 @@
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8193,13 +8188,13 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8250,7 +8245,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8268,7 +8263,7 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8279,10 +8274,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8308,10 +8303,10 @@
         <v>209</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8341,11 +8336,11 @@
         <v>110</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8362,7 +8357,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8380,21 +8375,21 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>375</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8420,10 +8415,10 @@
         <v>209</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8453,11 +8448,11 @@
         <v>213</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8474,7 +8469,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8498,15 +8493,15 @@
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8532,16 +8527,16 @@
         <v>209</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8569,11 +8564,11 @@
         <v>213</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8590,7 +8585,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8608,21 +8603,21 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>390</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8648,10 +8643,10 @@
         <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8681,11 +8676,11 @@
         <v>110</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
       </c>
@@ -8702,7 +8697,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8720,21 +8715,21 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>397</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8760,10 +8755,10 @@
         <v>209</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8793,11 +8788,11 @@
         <v>110</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
       </c>
@@ -8814,7 +8809,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8832,21 +8827,21 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>404</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8869,13 +8864,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8926,7 +8921,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8944,21 +8939,21 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>409</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8984,10 +8979,10 @@
         <v>209</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9017,11 +9012,11 @@
         <v>213</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9038,7 +9033,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9056,21 +9051,21 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>416</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9096,13 +9091,13 @@
         <v>163</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9152,7 +9147,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9170,7 +9165,7 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9181,10 +9176,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9293,10 +9288,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9407,10 +9402,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9523,10 +9518,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9549,13 +9544,13 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9606,7 +9601,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>86</v>
@@ -9621,24 +9616,24 @@
         <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AL69" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>431</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9664,13 +9659,13 @@
         <v>106</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9699,11 +9694,11 @@
         <v>155</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
       </c>
@@ -9720,7 +9715,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9738,7 +9733,7 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -9749,10 +9744,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9778,13 +9773,13 @@
         <v>209</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9813,11 +9808,11 @@
         <v>213</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>78</v>
       </c>
@@ -9834,7 +9829,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9863,10 +9858,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9892,10 +9887,10 @@
         <v>183</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9946,7 +9941,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9964,7 +9959,7 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -9975,10 +9970,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10001,13 +9996,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10058,7 +10053,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -10073,24 +10068,24 @@
         <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>453</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10113,16 +10108,16 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10172,7 +10167,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10187,10 +10182,10 @@
         <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T11:42:20+00:00</t>
+    <t>2024-03-22T12:58:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1769,17 +1769,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.98828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.6953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1788,26 +1788,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.75" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.99609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="88.7421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="187.49609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="89.546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T12:58:08+00:00</t>
+    <t>2024-03-22T14:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T14:34:11+00:00</t>
+    <t>2024-03-22T16:20:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T16:20:37+00:00</t>
+    <t>2024-03-25T12:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T12:19:57+00:00</t>
+    <t>2024-03-25T15:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T15:09:50+00:00</t>
+    <t>2024-03-25T16:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T16:04:49+00:00</t>
+    <t>2024-03-26T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1769,17 +1769,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.59765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.14453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1788,26 +1788,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.99609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.2265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.75" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="89.546875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="88.7421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="187.49609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T07:33:19+00:00</t>
+    <t>2024-03-26T12:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1769,17 +1769,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.98828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.6953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1788,26 +1788,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.75" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.99609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="88.7421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="187.49609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="89.546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T12:37:11+00:00</t>
+    <t>2024-03-26T14:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T14:28:58+00:00</t>
+    <t>2024-03-26T14:52:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T14:52:36+00:00</t>
+    <t>2024-03-27T10:43:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T10:43:47+00:00</t>
+    <t>2024-03-27T12:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T12:02:55+00:00</t>
+    <t>2024-03-28T06:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1769,17 +1769,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.59765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.14453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1788,26 +1788,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.99609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.2265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.75" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="89.546875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="88.7421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="187.49609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T06:59:04+00:00</t>
+    <t>2024-03-28T07:27:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T07:27:12+00:00</t>
+    <t>2024-03-28T15:35:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="539">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T15:35:10+00:00</t>
+    <t>2024-04-04T07:58:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -901,6 +901,253 @@
   </si>
   <si>
     <t>ROL-4</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.identifier.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.identifier.extension</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.identifier.type</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.identifier.period</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>Encounter.appointment</t>
@@ -1403,10 +1650,6 @@
   </si>
   <si>
     <t>Encounter.serviceProvider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>The organization (facility) responsible for this encounter</t>
@@ -1760,7 +2003,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1769,8 +2012,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.59765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.30078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.30078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
@@ -1788,16 +2031,16 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.2265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="56.75" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1805,7 +2048,7 @@
     <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="88.7421875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="187.49609375" customWidth="true" bestFit="true"/>
   </cols>
@@ -6134,7 +6377,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6143,16 +6386,16 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>286</v>
+        <v>169</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>287</v>
+        <v>170</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>288</v>
+        <v>171</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6203,50 +6446,50 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>285</v>
+        <v>172</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>289</v>
+        <v>167</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6258,16 +6501,16 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>133</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>293</v>
+        <v>174</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>294</v>
+        <v>135</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6305,51 +6548,51 @@
         <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>291</v>
+        <v>175</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>296</v>
+        <v>167</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6369,19 +6612,19 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>300</v>
+        <v>169</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6431,7 +6674,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6440,41 +6683,41 @@
         <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>304</v>
+        <v>129</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6486,16 +6729,16 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6521,13 +6764,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6545,13 +6788,13 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
@@ -6560,35 +6803,35 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>314</v>
+        <v>129</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6600,16 +6843,16 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>318</v>
+        <v>144</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6659,13 +6902,13 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
@@ -6674,24 +6917,24 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6702,7 +6945,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6711,16 +6954,16 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>321</v>
+        <v>170</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>322</v>
+        <v>171</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6771,25 +7014,25 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>320</v>
+        <v>172</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>323</v>
+        <v>167</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6800,21 +7043,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6826,15 +7069,17 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6871,31 +7116,31 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -6912,44 +7157,46 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>133</v>
+        <v>312</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>174</v>
+        <v>313</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -6973,13 +7220,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -6997,74 +7244,74 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>175</v>
+        <v>318</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>178</v>
+        <v>321</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>135</v>
+        <v>323</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>141</v>
+        <v>324</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7089,13 +7336,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7113,43 +7360,43 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>129</v>
+        <v>319</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7168,7 +7415,7 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>329</v>
+        <v>100</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>330</v>
@@ -7177,9 +7424,11 @@
         <v>331</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7191,7 +7440,7 @@
         <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>78</v>
@@ -7227,10 +7476,10 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>86</v>
@@ -7242,24 +7491,24 @@
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7267,7 +7516,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>86</v>
@@ -7279,18 +7528,20 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7303,7 +7554,7 @@
         <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>78</v>
@@ -7315,13 +7566,13 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7339,7 +7590,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7357,21 +7608,21 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>167</v>
+        <v>344</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7391,16 +7642,16 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>341</v>
+        <v>183</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7451,7 +7702,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7469,21 +7720,21 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7494,7 +7745,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7503,19 +7754,19 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7565,13 +7816,13 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
@@ -7583,21 +7834,21 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7617,19 +7868,19 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7679,7 +7930,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7697,7 +7948,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>355</v>
+        <v>129</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7708,10 +7959,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7722,7 +7973,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7731,16 +7982,16 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>169</v>
+        <v>366</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>170</v>
+        <v>367</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>171</v>
+        <v>368</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7791,50 +8042,50 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>172</v>
+        <v>365</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>167</v>
+        <v>369</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -7846,16 +8097,16 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>133</v>
+        <v>372</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>174</v>
+        <v>373</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>135</v>
+        <v>374</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7905,75 +8156,73 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>175</v>
+        <v>371</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>167</v>
+        <v>376</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>78</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>132</v>
+        <v>380</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>178</v>
+        <v>381</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>179</v>
+        <v>382</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8021,50 +8270,50 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>180</v>
+        <v>379</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>129</v>
+        <v>384</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8073,18 +8322,20 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8109,13 +8360,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>78</v>
+        <v>392</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8133,13 +8384,13 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
@@ -8148,35 +8399,35 @@
         <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>148</v>
+        <v>394</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>362</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8185,18 +8436,20 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8245,13 +8498,13 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
@@ -8260,24 +8513,24 @@
         <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8288,7 +8541,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8297,16 +8550,16 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8333,13 +8586,13 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>371</v>
+        <v>78</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8357,13 +8610,13 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
@@ -8375,21 +8628,21 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8412,13 +8665,13 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>376</v>
+        <v>170</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>377</v>
+        <v>171</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8445,13 +8698,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8469,7 +8722,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>375</v>
+        <v>172</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8481,7 +8734,7 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
@@ -8493,19 +8746,19 @@
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8524,20 +8777,18 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>382</v>
+        <v>133</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>383</v>
+        <v>174</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8561,13 +8812,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>387</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8585,7 +8836,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>381</v>
+        <v>175</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8597,31 +8848,31 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>388</v>
+        <v>167</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8634,22 +8885,26 @@
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>391</v>
+        <v>178</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -8673,13 +8928,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -8697,7 +8952,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8709,38 +8964,38 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>395</v>
+        <v>129</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -8749,18 +9004,20 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>209</v>
+        <v>409</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -8785,13 +9042,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -8809,13 +9066,13 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
@@ -8824,24 +9081,24 @@
         <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>78</v>
+        <v>412</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8864,13 +9121,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8897,13 +9154,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>78</v>
+        <v>419</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -8921,7 +9178,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8939,21 +9196,21 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>407</v>
+        <v>167</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8976,13 +9233,13 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>209</v>
+        <v>421</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9009,13 +9266,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>413</v>
+        <v>78</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9033,7 +9290,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9051,21 +9308,21 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9088,16 +9345,16 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>163</v>
+        <v>426</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9147,7 +9404,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9165,7 +9422,7 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9176,10 +9433,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9202,15 +9459,17 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>170</v>
+        <v>432</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9259,7 +9518,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>172</v>
+        <v>431</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9271,13 +9530,13 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>167</v>
+        <v>435</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9288,21 +9547,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9314,17 +9573,15 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9373,19 +9630,19 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -9402,14 +9659,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9422,26 +9679,24 @@
         <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O68" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9489,7 +9744,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9507,7 +9762,7 @@
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
@@ -9518,42 +9773,46 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>425</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>426</v>
+        <v>178</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9601,39 +9860,39 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>424</v>
+        <v>180</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>282</v>
+        <v>129</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>429</v>
+        <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>430</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9656,17 +9915,15 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -9691,13 +9948,13 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -9715,7 +9972,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9733,21 +9990,21 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>437</v>
+        <v>148</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>78</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9770,17 +10027,15 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>209</v>
+        <v>444</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -9805,31 +10060,31 @@
         <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9847,7 +10102,7 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>78</v>
+        <v>447</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -9858,10 +10113,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9884,13 +10139,13 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9917,13 +10172,13 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>78</v>
+        <v>451</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -9941,7 +10196,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9959,21 +10214,21 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>275</v>
+        <v>453</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>78</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9996,13 +10251,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>448</v>
+        <v>209</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10029,13 +10284,13 @@
         <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>78</v>
+        <v>458</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>78</v>
@@ -10053,7 +10308,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -10068,24 +10323,24 @@
         <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>451</v>
+        <v>167</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10096,7 +10351,7 @@
         <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10108,18 +10363,20 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>454</v>
+        <v>209</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10143,13 +10400,13 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -10167,13 +10424,13 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
@@ -10182,20 +10439,1602 @@
         <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>458</v>
+        <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN74">
+  <autoFilter ref="A1:AN88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10205,7 +12044,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T07:58:12+01:00</t>
+    <t>2024-04-09T11:34:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2012,17 +2012,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.30078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.30078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.84375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.84375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.6953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2031,26 +2031,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.75" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="187.49609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-09T11:34:38+01:00</t>
+    <t>2024-04-09T14:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-09T14:59:55+01:00</t>
+    <t>2024-04-12T08:32:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2012,17 +2012,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.84375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.30078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.14453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2031,26 +2031,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.75" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="187.49609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T08:32:19+01:00</t>
+    <t>2024-04-12T10:30:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2012,17 +2012,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.30078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.30078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.84375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.84375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.6953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2031,26 +2031,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.75" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="187.49609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T10:30:08+01:00</t>
+    <t>2024-04-12T11:43:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T11:43:38+01:00</t>
+    <t>2024-04-15T10:54:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T10:54:06+01:00</t>
+    <t>2024-04-19T04:03:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2012,17 +2012,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.84375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.30078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.14453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2031,26 +2031,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.75" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="187.49609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-19T04:03:07+01:00</t>
+    <t>2024-04-23T08:00:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter.xlsx
+++ b/docs/StructureDefinition-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T08:00:23+01:00</t>
+    <t>2024-04-24T08:46:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
